--- a/DataDriven_Framework_COTC/ContactsSuite.xlsx
+++ b/DataDriven_Framework_COTC/ContactsSuite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Runmode</t>
   </si>
@@ -130,6 +130,24 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Selenium1</t>
+  </si>
+  <si>
+    <t>FAILURE</t>
+  </si>
+  <si>
+    <t>The group name already Exists on file!. Please enter another name.</t>
+  </si>
+  <si>
+    <t>Your group has been saved.</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Selenium4</t>
   </si>
 </sst>
 </file>
@@ -529,7 +547,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -550,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -558,7 +576,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -576,10 +594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -587,6 +605,7 @@
     <col min="3" max="4" width="11.81640625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="14.1796875" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
     <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
@@ -618,7 +637,10 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
@@ -634,160 +656,211 @@
         <v>32</v>
       </c>
       <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="29">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
         <v>34</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" ht="29">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="G13" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="M7" r:id="rId3"/>
-    <hyperlink ref="D11" r:id="rId4"/>
+    <hyperlink ref="E9" r:id="rId2"/>
+    <hyperlink ref="M9" r:id="rId3"/>
+    <hyperlink ref="D13" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="D5" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/DataDriven_Framework_COTC/ContactsSuite.xlsx
+++ b/DataDriven_Framework_COTC/ContactsSuite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>Runmode</t>
   </si>
@@ -48,9 +48,6 @@
     <t>vidhya@i-waves.com</t>
   </si>
   <si>
-    <t>AddGroupTest</t>
-  </si>
-  <si>
     <t>AddContactTest</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>testing1</t>
   </si>
   <si>
-    <t>DeleteGroupTest</t>
-  </si>
-  <si>
     <t>Selenium2</t>
   </si>
   <si>
@@ -148,6 +142,39 @@
   </si>
   <si>
     <t>Selenium4</t>
+  </si>
+  <si>
+    <t>EditContactTest</t>
+  </si>
+  <si>
+    <t>DeleteContactTest</t>
+  </si>
+  <si>
+    <t>SearchContactsTest</t>
+  </si>
+  <si>
+    <t>contactemail1</t>
+  </si>
+  <si>
+    <t>contactemail2</t>
+  </si>
+  <si>
+    <t>contactemail3</t>
+  </si>
+  <si>
+    <t>contactemail4</t>
+  </si>
+  <si>
+    <t>contactemail5</t>
+  </si>
+  <si>
+    <t>arjun@i-waves.com</t>
+  </si>
+  <si>
+    <t>sathishkumarm@i-waves.com</t>
+  </si>
+  <si>
+    <t>pkavitha@i-waves.com</t>
   </si>
 </sst>
 </file>
@@ -232,7 +259,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -249,6 +276,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -544,15 +581,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -568,23 +605,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -594,15 +639,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="4" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="14.1796875" customWidth="1"/>
     <col min="7" max="7" width="11.1796875" customWidth="1"/>
@@ -615,252 +661,339 @@
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:15" s="14" customFormat="1" ht="29">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="2"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" ht="29">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" ht="29">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="G18" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="E9" r:id="rId2"/>
-    <hyperlink ref="M9" r:id="rId3"/>
-    <hyperlink ref="D13" r:id="rId4"/>
-    <hyperlink ref="D4" r:id="rId5"/>
-    <hyperlink ref="D5" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="E14" r:id="rId2"/>
+    <hyperlink ref="M14" r:id="rId3"/>
+    <hyperlink ref="D18" r:id="rId4"/>
+    <hyperlink ref="D9" r:id="rId5"/>
+    <hyperlink ref="D10" r:id="rId6"/>
+    <hyperlink ref="F3" r:id="rId7"/>
+    <hyperlink ref="D3" r:id="rId8"/>
+    <hyperlink ref="G3" r:id="rId9"/>
+    <hyperlink ref="H3" r:id="rId10"/>
+    <hyperlink ref="I3" r:id="rId11"/>
+    <hyperlink ref="J3" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>
 
